--- a/rider/weekly/2016_37.xlsx
+++ b/rider/weekly/2016_37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Weekday</t>
   </si>
@@ -35,6 +35,42 @@
   </si>
   <si>
     <t>12 Sep 2016</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>13 Sep 2016</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>14 Sep 2016</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>15 Sep 2016</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>16 Sep 2016</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>17 Sep 2016</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>18 Sep 2016</t>
   </si>
 </sst>
 </file>
@@ -125,23 +161,59 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$2</c:f>
+              <c:f>Ridership!$B$2:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$2</c:f>
+              <c:f>Ridership!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>170</c:v>
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -165,23 +237,59 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$2</c:f>
+              <c:f>Ridership!$B$2:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$2</c:f>
+              <c:f>Ridership!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>101</c:v>
+                  <c:v>102.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -205,23 +313,59 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$2</c:f>
+              <c:f>Ridership!$B$2:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$2</c:f>
+              <c:f>Ridership!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>80.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,13 +458,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -628,7 +772,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,13 +810,115 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>102.15</v>
       </c>
       <c r="E2">
         <v>80.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>258</v>
+      </c>
+      <c r="D3">
+        <v>107.2</v>
+      </c>
+      <c r="E3">
+        <v>80.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>205</v>
+      </c>
+      <c r="D4">
+        <v>111.57</v>
+      </c>
+      <c r="E4">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>349</v>
+      </c>
+      <c r="D5">
+        <v>112.67</v>
+      </c>
+      <c r="E5">
+        <v>80.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>217</v>
+      </c>
+      <c r="D6">
+        <v>107.12</v>
+      </c>
+      <c r="E6">
+        <v>81.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>49.77</v>
+      </c>
+      <c r="E7">
+        <v>81.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+      <c r="D8">
+        <v>38.83</v>
+      </c>
+      <c r="E8">
+        <v>81.4</v>
       </c>
     </row>
   </sheetData>

--- a/rider/weekly/2016_37.xlsx
+++ b/rider/weekly/2016_37.xlsx
@@ -195,22 +195,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>198</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>258</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>205</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>349</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>217</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>75</c:v>
@@ -274,22 +274,22 @@
                   <c:v>102.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.2</c:v>
+                  <c:v>106.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>111.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112.67</c:v>
+                  <c:v>111.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>107.12</c:v>
+                  <c:v>107.14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.77</c:v>
+                  <c:v>49.58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.83</c:v>
+                  <c:v>38.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,7 +810,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D2">
         <v>102.15</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D3">
-        <v>107.2</v>
+        <v>106.4</v>
       </c>
       <c r="E3">
         <v>80.59</v>
@@ -844,7 +844,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D4">
         <v>111.57</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>349</v>
+        <v>252</v>
       </c>
       <c r="D5">
-        <v>112.67</v>
+        <v>111.11</v>
       </c>
       <c r="E5">
         <v>80.91</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D6">
-        <v>107.12</v>
+        <v>107.14</v>
       </c>
       <c r="E6">
         <v>81.07</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>49.77</v>
+        <v>49.58</v>
       </c>
       <c r="E7">
         <v>81.23</v>
@@ -915,7 +915,7 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>38.83</v>
+        <v>38.89</v>
       </c>
       <c r="E8">
         <v>81.4</v>

--- a/rider/weekly/2016_37.xlsx
+++ b/rider/weekly/2016_37.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>203</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>209</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>252</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>102.15</c:v>
+                  <c:v>101.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106.4</c:v>
+                  <c:v>106.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111.57</c:v>
+                  <c:v>112.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111.11</c:v>
+                  <c:v>110.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>107.14</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.58</c:v>
+                  <c:v>49.79</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.89</c:v>
+                  <c:v>38.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D2">
-        <v>102.15</v>
+        <v>101.75</v>
       </c>
       <c r="E2">
         <v>80.43</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="D3">
-        <v>106.4</v>
+        <v>106.89</v>
       </c>
       <c r="E3">
         <v>80.59</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="D4">
-        <v>111.57</v>
+        <v>112.06</v>
       </c>
       <c r="E4">
         <v>80.75</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="D5">
-        <v>111.11</v>
+        <v>110.3</v>
       </c>
       <c r="E5">
         <v>80.91</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D6">
-        <v>107.14</v>
+        <v>107</v>
       </c>
       <c r="E6">
         <v>81.07</v>
@@ -898,7 +898,7 @@
         <v>60</v>
       </c>
       <c r="D7">
-        <v>49.58</v>
+        <v>49.79</v>
       </c>
       <c r="E7">
         <v>81.23</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>38.89</v>
+        <v>38.81</v>
       </c>
       <c r="E8">
         <v>81.4</v>
